--- a/budgetNew.xlsx
+++ b/budgetNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16dea\OneDrive\Desktop\bored\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709842F0-E269-40ED-8EF1-E989C75483B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7DC3E-7439-477C-8281-FAABAEEC8B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C190936-9228-431F-A7F8-5C32B183D8F6}"/>
   </bookViews>
@@ -25,12 +25,14 @@
     <definedName name="firstfood">'Expense List'!$D$2</definedName>
     <definedName name="firstkids">'Expense List'!$F$2</definedName>
     <definedName name="firstStore">'Expense List'!$H$2</definedName>
+    <definedName name="fistMisc">'Expense List'!$J$2</definedName>
     <definedName name="foodList">'Expense List'!$D$2:$D$139</definedName>
     <definedName name="fStoreName">'Budget Sheet'!$O$11:$O$22</definedName>
     <definedName name="HouseList">'Expense List'!$B$2:$B$139</definedName>
     <definedName name="houselistone">'Expense List'!$B$2</definedName>
     <definedName name="kidsList">'Expense List'!$F$2:$F$139</definedName>
     <definedName name="kStoreName">'Budget Sheet'!$G$28:$G$39</definedName>
+    <definedName name="miscList">'Expense List'!$J$2:$J$139</definedName>
     <definedName name="mStoreName">'Budget Sheet'!$O$28:$O$39</definedName>
     <definedName name="storeList">'Expense List'!$H$2:$H$139</definedName>
     <definedName name="storeName">'Budget Sheet'!$O$11:$O$22,'Budget Sheet'!$O$28:$O$39,'Budget Sheet'!$G$28:$G$39</definedName>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>May</t>
   </si>
@@ -125,9 +127,6 @@
     <t>Which Store I buy the most From?</t>
   </si>
   <si>
-    <t>Toal Visits</t>
-  </si>
-  <si>
     <t>Total Paid</t>
   </si>
   <si>
@@ -164,7 +163,13 @@
     <t>December</t>
   </si>
   <si>
-    <t>resturaunt</t>
+    <t>Total Visits</t>
+  </si>
+  <si>
+    <t>Miscellaneous List</t>
+  </si>
+  <si>
+    <t>toothpaste</t>
   </si>
 </sst>
 </file>
@@ -240,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -426,17 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -447,33 +441,13 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -497,10 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,7 +478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +490,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -528,6 +501,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -538,601 +520,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1636,8 +1031,8 @@
   <dimension ref="C1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,41 +1051,41 @@
   <sheetData>
     <row r="1" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="12"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
@@ -1759,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="E3:O3" ca="1" si="0">IF(MONTH(TODAY())= MONTH(I$1&amp;1),SUM(P23,P40,H23,H40),0)</f>
+        <f t="shared" ref="I3" ca="1" si="0">IF(MONTH(TODAY())= MONTH(I$1&amp;1),SUM(P23,P40,H23,H40),0)</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -1842,61 +1237,61 @@
     </row>
     <row r="8" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="K9" s="34" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="K9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="str">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="str">
         <f t="shared" ref="F11:F23" si="2">IF(AND(D11=0,E11=0),"-",D11-E11)</f>
         <v>-</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18" t="str">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16" t="str">
         <f>IF(AND(L11=0,M11=0),"-",L11-M11)</f>
         <v>-</v>
       </c>
@@ -1910,10 +1305,10 @@
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="17"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="3" t="str">
         <f t="shared" ref="N12:N23" si="3">IF(AND(L12=0,M12=0),"-",L12-M12)</f>
         <v>-</v>
@@ -1930,7 +1325,7 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -1947,7 +1342,7 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="17"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -1964,7 +1359,7 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -1981,7 +1376,7 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -1998,7 +1393,7 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -2015,7 +1410,7 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
@@ -2124,20 +1519,20 @@
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="K26" s="33" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="K26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
@@ -2152,7 +1547,7 @@
       <c r="F27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -2167,7 +1562,7 @@
       <c r="N27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2505,14 +1900,14 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C22 C29:C39 K29:K39" xr:uid="{E301BFA2-1BE5-4AA4-94C2-A6B5FDA22E1C}">
       <formula1>OFFSET(houselistone,0,0,COUNTA(HouseList))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K22" xr:uid="{5460B8AF-6C11-472F-AA7B-4774A0503312}">
       <formula1>OFFSET(firstfood,0,0,COUNTA(foodList))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28 K28" xr:uid="{0489B3F6-C3C9-4BD2-B28E-EA9AB498DDD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28" xr:uid="{0489B3F6-C3C9-4BD2-B28E-EA9AB498DDD9}">
       <formula1>OFFSET(firstkids,0,0,COUNTA(kidsList))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O28:O39 G28:G39 O11:O22" xr:uid="{EAB260A3-F68E-4E3A-833A-0FA8B2C6C099}">
@@ -2527,6 +1922,9 @@
     <dataValidation type="custom" operator="lessThan" showInputMessage="1" showErrorMessage="1" errorTitle="IMPOSSIBLE" error="YOUR INCOME IS LOWER THEN YOUR BUDGET" sqref="L2" xr:uid="{0757E5EF-5A2C-475E-B590-273F1D06BC55}">
       <formula1>L$2&lt;SUM($L$23,$D$23,$L$40,$D$40)</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28" xr:uid="{CA5BCF73-0C32-478E-9D73-E2111F4E00EB}">
+      <formula1>OFFSET(fistMisc,0,0,COUNTA(miscList))</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2535,15 +1933,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F306E344-322A-4E4B-8603-39EADB0B6E6F}">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2553,11 +1954,19 @@
       <c r="F1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="34"/>
+      <c r="J1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -2570,10 +1979,8 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>36</v>
+      <c r="J2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BC8448-622D-443A-BF66-FC296A42E113}">
-  <dimension ref="C1:F16"/>
+  <dimension ref="C1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,32 +2001,30 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="29" t="s">
+    <row r="1" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
-        <v>20</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="15"/>
       <c r="D5" s="1">
         <f>SUMIF(mStoreName,C5,aaMis)+ SUMIF(kStoreName,C5,aaKids)+SUMIF(fStoreName,C5,aaFood)</f>
         <v>0</v>
@@ -2629,64 +2034,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{582E6F50-98A4-4901-A656-92141D922000}">

--- a/budgetNew.xlsx
+++ b/budgetNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16dea\OneDrive\Desktop\bored\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7DC3E-7439-477C-8281-FAABAEEC8B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677F87D-0145-4A60-A1AC-BE2626651D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C190936-9228-431F-A7F8-5C32B183D8F6}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>May</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>toothpaste</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t>Shufersal</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +230,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -245,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -443,14 +455,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,7 +508,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,6 +561,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,11 +1092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA13240-4D75-4ED8-A75B-1EA4C23B59E8}">
-  <dimension ref="C1:O40"/>
+  <dimension ref="C1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,335 +1113,364 @@
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="12"/>
-      <c r="D1" s="23" t="s">
+    <row r="1" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="11"/>
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="P1" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="36">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0</v>
+      </c>
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36">
+        <f>SUM(D2:O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(D$1&amp;1),SUM(M23,M40,E23,E40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(E$1&amp;1),SUM(N23,N40,F23,F40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(F$1&amp;1),SUM(O23,O40,#REF!,G40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(G$1&amp;1),SUM(#REF!,#REF!,#REF!,#REF!),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(H$1&amp;1),SUM(#REF!,#REF!,G23,#REF!),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3" ca="1" si="0">IF(MONTH(TODAY())= MONTH(I$1&amp;1),SUM(P23,P40,H23,H40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(J$1&amp;1),SUM(Q23,Q40,K23,K40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(K$1&amp;1),SUM(R23,R40,L23,L40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(L$1&amp;1),SUM(S23,S40,M23,M40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(M$1&amp;1),SUM(T23,T40,N23,N40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(N$1&amp;1),SUM(U23,U40,O23,O40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <f ca="1">IF(MONTH(TODAY())= MONTH(O$1&amp;1),SUM(V23,V40,#REF!,#REF!),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="D3" s="43">
+        <f ca="1">IF(MONTH(TODAY())= MONTH(D$1&amp;1),SUM($M$23,$M$40,$E$23,$E$40),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" ref="E3:O3" ca="1" si="0">IF(MONTH(TODAY())= MONTH(E$1&amp;1),SUM($M$23,$M$40,$E$23,$E$40),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="M3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <f ca="1">SUM(D3:O3)</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="45" t="str">
         <f ca="1">IF(AND(D2=0,D3=0),"-",D2-D3)</f>
         <v>-</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="45" t="str">
         <f t="shared" ref="E4:O4" ca="1" si="1">IF(AND(E2=0,E3=0),"-",E2-E3)</f>
         <v>-</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="L4" s="3" t="str">
+      <c r="L4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M4" s="3" t="str">
+        <v>-505</v>
+      </c>
+      <c r="M4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="N4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-      <c r="O4" s="3" t="str">
+      <c r="O4" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
+      <c r="P4" s="46">
+        <f ca="1">P2-P3</f>
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="K9" s="28" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="K9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="str">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>200</v>
+      </c>
+      <c r="E11" s="13">
+        <v>150</v>
+      </c>
+      <c r="F11" s="14">
         <f t="shared" ref="F11:F23" si="2">IF(AND(D11=0,E11=0),"-",D11-E11)</f>
-        <v>-</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16" t="str">
+        <v>50</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="13">
+        <v>500</v>
+      </c>
+      <c r="M11" s="13">
+        <v>300</v>
+      </c>
+      <c r="N11" s="14">
         <f>IF(AND(L11=0,M11=0),"-",L11-M11)</f>
-        <v>-</v>
-      </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="3" t="str">
+      <c r="M12" s="13"/>
+      <c r="N12" s="2" t="str">
         <f t="shared" ref="N12:N23" si="3">IF(AND(L12=0,M12=0),"-",L12-M12)</f>
         <v>-</v>
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="3" t="str">
+      <c r="M13" s="13"/>
+      <c r="N13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="3" t="str">
+      <c r="M14" s="13"/>
+      <c r="N14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="3" t="str">
+      <c r="M15" s="13"/>
+      <c r="N15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="3" t="str">
+      <c r="M16" s="13"/>
+      <c r="N16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -1387,14 +1480,14 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="3" t="str">
+      <c r="M17" s="13"/>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -1404,14 +1497,14 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="3" t="str">
+      <c r="M18" s="13"/>
+      <c r="N18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -1421,14 +1514,14 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3" t="str">
+      <c r="N19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -1438,14 +1531,14 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="3" t="str">
+      <c r="N20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -1455,140 +1548,156 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="3" t="str">
+      <c r="N21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="str">
+    <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="3" t="str">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="41">
         <f>SUM(D11:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="E23" s="41">
         <f>SUM(E11:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="str">
+        <v>150</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="K23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="41">
         <f>SUM(L11:L22)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
+        <v>500</v>
+      </c>
+      <c r="M23" s="41">
         <f>SUM(M11:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="str">
+        <v>300</v>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="K26" s="28" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="K26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3" t="str">
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" ref="F28:F40" si="4">IF(AND(D28=0,E28=0),"-",D28-E28)</f>
-        <v>-</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="3" t="str">
+        <v>150</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="1">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5</v>
+      </c>
+      <c r="N28" s="2">
         <f>IF(AND(L28=0,M28=0),"-",L28-M28)</f>
-        <v>-</v>
-      </c>
-      <c r="O28" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1596,7 +1705,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="3" t="str">
+      <c r="N29" s="2" t="str">
         <f t="shared" ref="N29:N40" si="5">IF(AND(L29=0,M29=0),"-",L29-M29)</f>
         <v>-</v>
       </c>
@@ -1606,7 +1715,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1614,7 +1723,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3" t="str">
+      <c r="N30" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1624,7 +1733,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1632,7 +1741,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="3" t="str">
+      <c r="N31" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1642,7 +1751,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1650,7 +1759,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="3" t="str">
+      <c r="N32" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1660,7 +1769,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1668,7 +1777,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="3" t="str">
+      <c r="N33" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1678,7 +1787,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1686,7 +1795,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="3" t="str">
+      <c r="N34" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1696,7 +1805,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1704,7 +1813,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="3" t="str">
+      <c r="N35" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1714,7 +1823,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1722,7 +1831,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="3" t="str">
+      <c r="N36" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1732,7 +1841,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1740,7 +1849,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="3" t="str">
+      <c r="N37" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -1750,7 +1859,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="2" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
@@ -1758,60 +1867,60 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="3" t="str">
+      <c r="N38" s="2" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7" t="str">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="7" t="str">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <f>SUM(D28:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
+        <v>200</v>
+      </c>
+      <c r="E40" s="7">
         <f>SUM(E28:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="str">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="K40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <f>SUM(L28:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="8">
+        <v>10</v>
+      </c>
+      <c r="M40" s="7">
         <f>SUM(M28:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="N40" s="8">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1979,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:O4">
+  <conditionalFormatting sqref="D4:P4">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1916,7 +2025,7 @@
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Impossible" error="YOU BUDGET IS MORE THEN YOUR INCOME!!!" sqref="L23" xr:uid="{25F73EE1-C372-4BB5-99B7-CDE8E5886041}">
       <formula1>"if(sum(J23,B23,J40,B40)&gt;D2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IMPOSSIBLE" error="YOUR INCOME IS LOWER THEN YOUR BUDGET" sqref="D2:K2 M2:O2" xr:uid="{0858F25B-3BDA-48CD-BDE6-3C5FF0553683}">
+    <dataValidation type="custom" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IMPOSSIBLE" error="YOUR INCOME IS LOWER THEN YOUR BUDGET" sqref="D2:K2 M2:P2" xr:uid="{0858F25B-3BDA-48CD-BDE6-3C5FF0553683}">
       <formula1>D$2&lt;(SUM($L$23,$D$23,$L$40,$D$40))</formula1>
     </dataValidation>
     <dataValidation type="custom" operator="lessThan" showInputMessage="1" showErrorMessage="1" errorTitle="IMPOSSIBLE" error="YOUR INCOME IS LOWER THEN YOUR BUDGET" sqref="L2" xr:uid="{0757E5EF-5A2C-475E-B590-273F1D06BC55}">
@@ -1933,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F306E344-322A-4E4B-8603-39EADB0B6E6F}">
-  <dimension ref="B1:N2"/>
+  <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,26 +2054,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1981,6 +2090,14 @@
       </c>
       <c r="J2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +2110,7 @@
   <dimension ref="C1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,11 +2123,11 @@
   <sheetData>
     <row r="1" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -2024,77 +2141,147 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="1">
-        <f>SUMIF(mStoreName,C5,aaMis)+ SUMIF(kStoreName,C5,aaKids)+SUMIF(fStoreName,C5,aaFood)</f>
-        <v>0</v>
+        <f>IF($C5="",$D5="",SUMIF(mStoreName,$C5,aaMis)+ SUMIF(kStoreName,$C5,aaKids)+SUMIF(fStoreName,$C5,aaFood))</f>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
-        <f>COUNTIF(fStoreName,C5)+ COUNTIF(kStoreName,C5)+COUNTIF( mStoreName,C5)</f>
-        <v>0</v>
+        <f>COUNTIF(fStoreName,$C5)+ COUNTIF(kStoreName,$C5)+COUNTIF( mStoreName,$C5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUMIF(mStoreName,$C6,aaMis)+ SUMIF(kStoreName,$C6,aaKids)+SUMIF(fStoreName,$C6,aaFood)</f>
+        <v>305</v>
+      </c>
+      <c r="E6" s="1">
+        <f>COUNTIF(fStoreName,$C6)+ COUNTIF(kStoreName,$C6)+COUNTIF( mStoreName,$C6)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1">
+        <f>SUMIF(mStoreName,$C7,aaMis)+ SUMIF(kStoreName,$C7,aaKids)+SUMIF(fStoreName,$C7,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>COUNTIF(fStoreName,$C7)+ COUNTIF(kStoreName,$C7)+COUNTIF( mStoreName,$C7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1">
+        <f>SUMIF(mStoreName,$C8,aaMis)+ SUMIF(kStoreName,$C8,aaKids)+SUMIF(fStoreName,$C8,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>COUNTIF(fStoreName,$C8)+ COUNTIF(kStoreName,$C8)+COUNTIF( mStoreName,$C8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1">
+        <f>SUMIF(mStoreName,$C9,aaMis)+ SUMIF(kStoreName,$C9,aaKids)+SUMIF(fStoreName,$C9,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f>COUNTIF(fStoreName,$C9)+ COUNTIF(kStoreName,$C9)+COUNTIF( mStoreName,$C9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1">
+        <f>SUMIF(mStoreName,$C10,aaMis)+ SUMIF(kStoreName,$C10,aaKids)+SUMIF(fStoreName,$C10,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f>COUNTIF(fStoreName,$C10)+ COUNTIF(kStoreName,$C10)+COUNTIF( mStoreName,$C10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1">
+        <f>SUMIF(mStoreName,$C11,aaMis)+ SUMIF(kStoreName,$C11,aaKids)+SUMIF(fStoreName,$C11,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>COUNTIF(fStoreName,$C11)+ COUNTIF(kStoreName,$C11)+COUNTIF( mStoreName,$C11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1">
+        <f>SUMIF(mStoreName,$C12,aaMis)+ SUMIF(kStoreName,$C12,aaKids)+SUMIF(fStoreName,$C12,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>COUNTIF(fStoreName,$C12)+ COUNTIF(kStoreName,$C12)+COUNTIF( mStoreName,$C12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1">
+        <f>SUMIF(mStoreName,$C13,aaMis)+ SUMIF(kStoreName,$C13,aaKids)+SUMIF(fStoreName,$C13,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f>COUNTIF(fStoreName,$C13)+ COUNTIF(kStoreName,$C13)+COUNTIF( mStoreName,$C13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1">
+        <f>SUMIF(mStoreName,$C14,aaMis)+ SUMIF(kStoreName,$C14,aaKids)+SUMIF(fStoreName,$C14,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>COUNTIF(fStoreName,$C14)+ COUNTIF(kStoreName,$C14)+COUNTIF( mStoreName,$C14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1">
+        <f>SUMIF(mStoreName,$C15,aaMis)+ SUMIF(kStoreName,$C15,aaKids)+SUMIF(fStoreName,$C15,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>COUNTIF(fStoreName,$C15)+ COUNTIF(kStoreName,$C15)+COUNTIF( mStoreName,$C15)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1">
+        <f>SUMIF(mStoreName,$C16,aaMis)+ SUMIF(kStoreName,$C16,aaKids)+SUMIF(fStoreName,$C16,aaFood)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>COUNTIF(fStoreName,$C16)+ COUNTIF(kStoreName,$C16)+COUNTIF( mStoreName,$C16)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{582E6F50-98A4-4901-A656-92141D922000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C16" xr:uid="{582E6F50-98A4-4901-A656-92141D922000}">
       <formula1>OFFSET(firstStore,0,0,COUNTA(storeList))</formula1>
     </dataValidation>
   </dataValidations>
